--- a/docs/NYPD_Arrest_YTD_DataDictionary.xlsx
+++ b/docs/NYPD_Arrest_YTD_DataDictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramisaalam/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9C8BAA-69F8-B84D-9AFD-4B4E5AFE25E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6D53B3-DEFF-1249-B119-AFD24D7CAD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10680" yWindow="500" windowWidth="24000" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10440" yWindow="500" windowWidth="24000" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset Info" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="124">
   <si>
     <t>Data Dictionary - Dataset Information</t>
   </si>
@@ -226,6 +226,24 @@
     <t>Longitude coordinate for Global Coordinate System, WGS 1984, decimal degrees (EPSG 4326)</t>
   </si>
   <si>
+    <t>is_felony</t>
+  </si>
+  <si>
+    <t>Tells us if the arrest was considered a felony or not.</t>
+  </si>
+  <si>
+    <t>boro_precinct</t>
+  </si>
+  <si>
+    <t>The combination of arrest borough and precinct, it is a new key.</t>
+  </si>
+  <si>
+    <t>age_category</t>
+  </si>
+  <si>
+    <t>Categorical representation of age group. Derived from age_group.</t>
+  </si>
+  <si>
     <t>Data Dictionary - Revision History
 Description of all changes to the format, data, or method of collection of the dataset that have taken place since the initial release.</t>
   </si>
@@ -362,34 +380,43 @@
     <t>law_cat_cd</t>
   </si>
   <si>
-    <t>is_felony</t>
-  </si>
-  <si>
     <t>boolean</t>
   </si>
   <si>
-    <t>Tells us if the arrest was considered a felony or not.</t>
+    <t>Tells us if the arrest is a felony or not.</t>
+  </si>
+  <si>
+    <t>is_misdemeanor</t>
+  </si>
+  <si>
+    <t>Tells us if the arrest is a misdemeanor or not.</t>
+  </si>
+  <si>
+    <t>is_violation</t>
+  </si>
+  <si>
+    <t>Tells us if the arrest is a violation or not.</t>
   </si>
   <si>
     <t>arrest_boro</t>
   </si>
   <si>
-    <t>boro_precinct</t>
-  </si>
-  <si>
     <t>object</t>
   </si>
   <si>
-    <t>The combination of arrest borough and precinct, it is a new key.</t>
-  </si>
-  <si>
     <t>age_group</t>
   </si>
   <si>
-    <t>age_category</t>
-  </si>
-  <si>
-    <t>Categorical representation of age group. Derived from age_group.</t>
+    <t>arrest_count</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>shows a count of one arrest per row.</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -846,6 +873,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -869,19 +906,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1321,8 +1348,8 @@
   <cols>
     <col min="1" max="1" width="45.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="52.6640625" style="4" customWidth="1"/>
-    <col min="3" max="4" width="9.1640625" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" style="4"/>
+    <col min="3" max="5" width="9.1640625" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -1330,20 +1357,20 @@
       <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="45"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
     </row>
     <row r="4" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="39"/>
+      <c r="B4" s="43"/>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
@@ -1394,16 +1421,16 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="39"/>
+      <c r="B11" s="43"/>
     </row>
     <row r="12" spans="1:2" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="46" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1411,7 +1438,7 @@
       <c r="A13" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="43"/>
+      <c r="B13" s="47"/>
     </row>
     <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15" t="s">
@@ -1443,27 +1470,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="39.1640625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="21" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.83203125" style="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.33203125" style="20" customWidth="1"/>
     <col min="4" max="4" width="65.33203125" style="20" customWidth="1"/>
-    <col min="5" max="6" width="9.1640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="1"/>
+    <col min="5" max="7" width="9.1640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
     </row>
     <row r="2" spans="1:4" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
@@ -1635,53 +1662,65 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="51" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-    </row>
-    <row r="22" spans="1:4" s="51" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="B22" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-    </row>
-    <row r="23" spans="1:4" s="51" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="49" t="s">
+    <row r="21" spans="1:4" s="40" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+    </row>
+    <row r="22" spans="1:4" s="40" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+    </row>
+    <row r="23" spans="1:4" s="40" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+    </row>
+    <row r="24" spans="1:4" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B24" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-    </row>
-    <row r="24" spans="1:4" s="51" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="49"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-    </row>
-    <row r="25" spans="1:4" s="51" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="49"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-    </row>
-    <row r="26" spans="1:4" s="51" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="49"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+    </row>
+    <row r="25" spans="1:4" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+    </row>
+    <row r="26" spans="1:4" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="18"/>
@@ -1718,17 +1757,17 @@
     <col min="2" max="2" width="10.6640625" style="37" customWidth="1"/>
     <col min="3" max="3" width="38.6640625" style="20" customWidth="1"/>
     <col min="4" max="4" width="31.6640625" style="20" customWidth="1"/>
-    <col min="5" max="6" width="9.1640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="1"/>
+    <col min="5" max="7" width="9.1640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="7" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
+      <c r="A1" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -1746,16 +1785,16 @@
     </row>
     <row r="2" spans="1:18" s="4" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="14" customHeight="1" x14ac:dyDescent="0.15">
@@ -1766,7 +1805,7 @@
         <v>43395</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D3" s="23"/>
     </row>
@@ -1860,25 +1899,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="47"/>
+      <c r="A1" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="51"/>
     </row>
     <row r="2" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="47"/>
+      <c r="B2" s="51"/>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="9" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1886,79 +1925,79 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="47"/>
+      <c r="B14" s="51"/>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="9" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="12"/>
       <c r="B16" s="9" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="9" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="9" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="9" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1966,22 +2005,22 @@
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="9" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="9" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="9" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1996,159 +2035,207 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" style="53" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" style="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="89.6640625" style="53" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="53"/>
+    <col min="1" max="1" width="15.83203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="89.6640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="41" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="52" t="s">
-        <v>89</v>
+      <c r="A1" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="53" t="s">
-        <v>92</v>
+      <c r="A2" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="53" t="s">
-        <v>95</v>
+      <c r="A3" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>97</v>
+      <c r="A4" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="53" t="s">
-        <v>99</v>
+      <c r="A5" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="D6" s="41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="53" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="53" t="s">
-        <v>103</v>
+      <c r="D7" s="41" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="53" t="s">
-        <v>107</v>
+      <c r="A8" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="53" t="s">
+      <c r="A9" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="B9" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="41" t="s">
         <v>111</v>
       </c>
+      <c r="D9" s="41" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" s="53" t="s">
+      <c r="A10" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="53" t="s">
-        <v>114</v>
+      <c r="B10" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="41" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
